--- a/Ref_compisition.xlsx
+++ b/Ref_compisition.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monkey\Desktop\QPC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QPC-GBM_HSIU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B6424B-0BF2-4450-96EC-1879A4ADBDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7167C9C-9F63-4680-AB30-FA7AFD64128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{6859AE6A-A434-4096-B0DE-99E3DD1D1D3B}"/>
+    <workbookView xWindow="-21620" yWindow="0" windowWidth="17290" windowHeight="20880" activeTab="1" xr2:uid="{6859AE6A-A434-4096-B0DE-99E3DD1D1D3B}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="db1" sheetId="1" r:id="rId1"/>
+    <sheet name="db2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t xml:space="preserve">DC_list </t>
   </si>
@@ -68,47 +69,44 @@
     <t xml:space="preserve">MC_list </t>
   </si>
   <si>
-    <t>Cibersort</t>
-  </si>
-  <si>
-    <t>EPIC</t>
-  </si>
-  <si>
-    <t>SCT</t>
-  </si>
-  <si>
-    <t>Raw</t>
-  </si>
-  <si>
-    <t>TMM</t>
-  </si>
-  <si>
-    <t>TPM</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>DatasetWhole_MinDist</t>
-  </si>
-  <si>
-    <t>decon</t>
-  </si>
-  <si>
-    <t>FAM</t>
+    <t>Celltype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>norMeth</t>
-  </si>
-  <si>
-    <t>Celltype</t>
+    <t>Reference_GSE182109_10celltype_611_ALL_n100_SCT_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_ALL_n20_RawCount_EPIC.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_DatasetWhole_MinDist_n100_TMM_EPIC.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_ALL_n100_TMM_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_ALL_n100_RawCount_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_ALL_n50_RawCount_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_411_ALL_n100_RawCount_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_211_ALL_n100_TPM_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_211_ALL_n100_SCT_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_211_ALL_n20_LogNormalize_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference_GSE182109_10celltype_611_DatasetWhole_MinDist_n50_TPM_Cibersort.csv</t>
+  </si>
+  <si>
+    <t>Reference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,244 +491,215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5DB6D7-F6C5-4A2F-85A2-574503A98D7D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" customWidth="1"/>
-    <col min="8" max="8" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>611</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>611</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>211</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>611</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>211</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>611</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>611</v>
-      </c>
-      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>611</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>611</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A0FD14-CBBC-4859-8D57-ED079DFA4EB4}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>411</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
